--- a/INTLINE/data/158/MOF/TRADE/COUN/EU.xlsx
+++ b/INTLINE/data/158/MOF/TRADE/COUN/EU.xlsx
@@ -4580,7 +4580,7 @@
         <v>640971436</v>
       </c>
       <c r="TA2" t="n">
-        <v>0</v>
+        <v>834789885</v>
       </c>
       <c r="TB2" t="n">
         <v>0</v>
@@ -6173,10 +6173,10 @@
         <v>870830200</v>
       </c>
       <c r="SZ3" t="n">
-        <v>835424024</v>
+        <v>835486007</v>
       </c>
       <c r="TA3" t="n">
-        <v>0</v>
+        <v>937805468</v>
       </c>
       <c r="TB3" t="n">
         <v>0</v>
@@ -7772,7 +7772,7 @@
         <v>9583382</v>
       </c>
       <c r="TA4" t="n">
-        <v>0</v>
+        <v>14533666</v>
       </c>
       <c r="TB4" t="n">
         <v>0</v>
@@ -9365,10 +9365,10 @@
         <v>43228140</v>
       </c>
       <c r="SZ5" t="n">
-        <v>29297030</v>
+        <v>29298517</v>
       </c>
       <c r="TA5" t="n">
-        <v>0</v>
+        <v>49452134</v>
       </c>
       <c r="TB5" t="n">
         <v>0</v>
@@ -10964,7 +10964,7 @@
         <v>4472840</v>
       </c>
       <c r="TA6" t="n">
-        <v>0</v>
+        <v>6620789</v>
       </c>
       <c r="TB6" t="n">
         <v>0</v>
@@ -12557,10 +12557,10 @@
         <v>28159915</v>
       </c>
       <c r="SZ7" t="n">
-        <v>24801261</v>
+        <v>24801585</v>
       </c>
       <c r="TA7" t="n">
-        <v>0</v>
+        <v>24985280</v>
       </c>
       <c r="TB7" t="n">
         <v>0</v>
@@ -17348,7 +17348,7 @@
         <v>18076977</v>
       </c>
       <c r="TA10" t="n">
-        <v>0</v>
+        <v>30693534</v>
       </c>
       <c r="TB10" t="n">
         <v>0</v>
@@ -18941,10 +18941,10 @@
         <v>45027760</v>
       </c>
       <c r="SZ11" t="n">
-        <v>45638958</v>
+        <v>45639000</v>
       </c>
       <c r="TA11" t="n">
-        <v>0</v>
+        <v>85152545</v>
       </c>
       <c r="TB11" t="n">
         <v>0</v>
@@ -20540,7 +20540,7 @@
         <v>109239286</v>
       </c>
       <c r="TA12" t="n">
-        <v>0</v>
+        <v>147853454</v>
       </c>
       <c r="TB12" t="n">
         <v>0</v>
@@ -22133,10 +22133,10 @@
         <v>42472957</v>
       </c>
       <c r="SZ13" t="n">
-        <v>41422977</v>
+        <v>41423813</v>
       </c>
       <c r="TA13" t="n">
-        <v>0</v>
+        <v>35640026</v>
       </c>
       <c r="TB13" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>71361268</v>
       </c>
       <c r="TA14" t="n">
-        <v>0</v>
+        <v>92449101</v>
       </c>
       <c r="TB14" t="n">
         <v>0</v>
@@ -25325,10 +25325,10 @@
         <v>45798103</v>
       </c>
       <c r="SZ15" t="n">
-        <v>87656949</v>
+        <v>87657456</v>
       </c>
       <c r="TA15" t="n">
-        <v>0</v>
+        <v>60456522</v>
       </c>
       <c r="TB15" t="n">
         <v>0</v>
@@ -26924,7 +26924,7 @@
         <v>7129105</v>
       </c>
       <c r="TA16" t="n">
-        <v>0</v>
+        <v>8513323</v>
       </c>
       <c r="TB16" t="n">
         <v>0</v>
@@ -28520,7 +28520,7 @@
         <v>864995</v>
       </c>
       <c r="TA17" t="n">
-        <v>0</v>
+        <v>817614</v>
       </c>
       <c r="TB17" t="n">
         <v>0</v>
@@ -30116,7 +30116,7 @@
         <v>55833698</v>
       </c>
       <c r="TA18" t="n">
-        <v>0</v>
+        <v>70390253</v>
       </c>
       <c r="TB18" t="n">
         <v>0</v>
@@ -31709,10 +31709,10 @@
         <v>98869797</v>
       </c>
       <c r="SZ19" t="n">
-        <v>97390304</v>
+        <v>97392797</v>
       </c>
       <c r="TA19" t="n">
-        <v>0</v>
+        <v>119839973</v>
       </c>
       <c r="TB19" t="n">
         <v>0</v>
@@ -33308,7 +33308,7 @@
         <v>182463060</v>
       </c>
       <c r="TA20" t="n">
-        <v>0</v>
+        <v>231356543</v>
       </c>
       <c r="TB20" t="n">
         <v>0</v>
@@ -34901,10 +34901,10 @@
         <v>245135195</v>
       </c>
       <c r="SZ21" t="n">
-        <v>192110331</v>
+        <v>192150667</v>
       </c>
       <c r="TA21" t="n">
-        <v>0</v>
+        <v>250186758</v>
       </c>
       <c r="TB21" t="n">
         <v>0</v>
@@ -36500,7 +36500,7 @@
         <v>5999080</v>
       </c>
       <c r="TA22" t="n">
-        <v>0</v>
+        <v>7711003</v>
       </c>
       <c r="TB22" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>5278153</v>
       </c>
       <c r="SZ23" t="n">
-        <v>4844335</v>
+        <v>4846511</v>
       </c>
       <c r="TA23" t="n">
-        <v>0</v>
+        <v>3343967</v>
       </c>
       <c r="TB23" t="n">
         <v>0</v>
@@ -39692,7 +39692,7 @@
         <v>21576330</v>
       </c>
       <c r="TA24" t="n">
-        <v>0</v>
+        <v>24110620</v>
       </c>
       <c r="TB24" t="n">
         <v>0</v>
@@ -41285,10 +41285,10 @@
         <v>77992401</v>
       </c>
       <c r="SZ25" t="n">
-        <v>84958372</v>
+        <v>84958548</v>
       </c>
       <c r="TA25" t="n">
-        <v>0</v>
+        <v>74946183</v>
       </c>
       <c r="TB25" t="n">
         <v>0</v>
@@ -42884,7 +42884,7 @@
         <v>54474919</v>
       </c>
       <c r="TA26" t="n">
-        <v>0</v>
+        <v>58123093</v>
       </c>
       <c r="TB26" t="n">
         <v>0</v>
@@ -44477,10 +44477,10 @@
         <v>116965292</v>
       </c>
       <c r="SZ27" t="n">
-        <v>115790348</v>
+        <v>115792010</v>
       </c>
       <c r="TA27" t="n">
-        <v>0</v>
+        <v>111935802</v>
       </c>
       <c r="TB27" t="n">
         <v>0</v>
@@ -46076,7 +46076,7 @@
         <v>735930</v>
       </c>
       <c r="TA28" t="n">
-        <v>0</v>
+        <v>14182760</v>
       </c>
       <c r="TB28" t="n">
         <v>0</v>
@@ -47672,7 +47672,7 @@
         <v>3029958</v>
       </c>
       <c r="TA29" t="n">
-        <v>0</v>
+        <v>1139954</v>
       </c>
       <c r="TB29" t="n">
         <v>0</v>
@@ -49268,7 +49268,7 @@
         <v>4566731</v>
       </c>
       <c r="TA30" t="n">
-        <v>0</v>
+        <v>5727505</v>
       </c>
       <c r="TB30" t="n">
         <v>0</v>
@@ -50864,7 +50864,7 @@
         <v>24222186</v>
       </c>
       <c r="TA31" t="n">
-        <v>0</v>
+        <v>18872999</v>
       </c>
       <c r="TB31" t="n">
         <v>0</v>
@@ -52460,7 +52460,7 @@
         <v>31393342</v>
       </c>
       <c r="TA32" t="n">
-        <v>0</v>
+        <v>40554418</v>
       </c>
       <c r="TB32" t="n">
         <v>0</v>
@@ -54053,10 +54053,10 @@
         <v>14043850</v>
       </c>
       <c r="SZ33" t="n">
-        <v>11777474</v>
+        <v>11786232</v>
       </c>
       <c r="TA33" t="n">
-        <v>0</v>
+        <v>12784206</v>
       </c>
       <c r="TB33" t="n">
         <v>0</v>
@@ -55652,7 +55652,7 @@
         <v>11564318</v>
       </c>
       <c r="TA34" t="n">
-        <v>0</v>
+        <v>14434491</v>
       </c>
       <c r="TB34" t="n">
         <v>0</v>
@@ -57245,10 +57245,10 @@
         <v>20842694</v>
       </c>
       <c r="SZ35" t="n">
-        <v>21853794</v>
+        <v>21854289</v>
       </c>
       <c r="TA35" t="n">
-        <v>0</v>
+        <v>23889646</v>
       </c>
       <c r="TB35" t="n">
         <v>0</v>
@@ -58844,7 +58844,7 @@
         <v>15473163</v>
       </c>
       <c r="TA36" t="n">
-        <v>0</v>
+        <v>17441527</v>
       </c>
       <c r="TB36" t="n">
         <v>0</v>
@@ -60437,10 +60437,10 @@
         <v>9133455</v>
       </c>
       <c r="SZ37" t="n">
-        <v>8602568</v>
+        <v>8607902</v>
       </c>
       <c r="TA37" t="n">
-        <v>0</v>
+        <v>11226201</v>
       </c>
       <c r="TB37" t="n">
         <v>0</v>
@@ -62036,7 +62036,7 @@
         <v>2634294</v>
       </c>
       <c r="TA38" t="n">
-        <v>0</v>
+        <v>4362762</v>
       </c>
       <c r="TB38" t="n">
         <v>0</v>
@@ -63629,10 +63629,10 @@
         <v>11171636</v>
       </c>
       <c r="SZ39" t="n">
-        <v>4555662</v>
+        <v>4555522</v>
       </c>
       <c r="TA39" t="n">
-        <v>0</v>
+        <v>13708180</v>
       </c>
       <c r="TB39" t="n">
         <v>0</v>
@@ -65228,7 +65228,7 @@
         <v>4313362</v>
       </c>
       <c r="TA40" t="n">
-        <v>0</v>
+        <v>5374139</v>
       </c>
       <c r="TB40" t="n">
         <v>0</v>
@@ -66821,10 +66821,10 @@
         <v>7082543</v>
       </c>
       <c r="SZ41" t="n">
-        <v>12554705</v>
+        <v>12560729</v>
       </c>
       <c r="TA41" t="n">
-        <v>0</v>
+        <v>11564244</v>
       </c>
       <c r="TB41" t="n">
         <v>0</v>
@@ -68420,7 +68420,7 @@
         <v>2358907</v>
       </c>
       <c r="TA42" t="n">
-        <v>0</v>
+        <v>1808276</v>
       </c>
       <c r="TB42" t="n">
         <v>0</v>
@@ -70013,10 +70013,10 @@
         <v>1042441</v>
       </c>
       <c r="SZ43" t="n">
-        <v>1511790</v>
+        <v>1511953</v>
       </c>
       <c r="TA43" t="n">
-        <v>0</v>
+        <v>1223565</v>
       </c>
       <c r="TB43" t="n">
         <v>0</v>
@@ -71612,7 +71612,7 @@
         <v>1141526</v>
       </c>
       <c r="TA44" t="n">
-        <v>0</v>
+        <v>1918841</v>
       </c>
       <c r="TB44" t="n">
         <v>0</v>
@@ -73208,7 +73208,7 @@
         <v>3186</v>
       </c>
       <c r="TA45" t="n">
-        <v>0</v>
+        <v>3465</v>
       </c>
       <c r="TB45" t="n">
         <v>0</v>
@@ -74804,7 +74804,7 @@
         <v>2173954</v>
       </c>
       <c r="TA46" t="n">
-        <v>0</v>
+        <v>3459936</v>
       </c>
       <c r="TB46" t="n">
         <v>0</v>
@@ -76400,7 +76400,7 @@
         <v>2167904</v>
       </c>
       <c r="TA47" t="n">
-        <v>0</v>
+        <v>1722672</v>
       </c>
       <c r="TB47" t="n">
         <v>0</v>
@@ -77996,7 +77996,7 @@
         <v>454745</v>
       </c>
       <c r="TA48" t="n">
-        <v>0</v>
+        <v>464327</v>
       </c>
       <c r="TB48" t="n">
         <v>0</v>
@@ -79592,7 +79592,7 @@
         <v>1357646</v>
       </c>
       <c r="TA49" t="n">
-        <v>0</v>
+        <v>1638356</v>
       </c>
       <c r="TB49" t="n">
         <v>0</v>
@@ -81188,7 +81188,7 @@
         <v>1139709</v>
       </c>
       <c r="TA50" t="n">
-        <v>0</v>
+        <v>799187</v>
       </c>
       <c r="TB50" t="n">
         <v>0</v>
@@ -82781,10 +82781,10 @@
         <v>1522114</v>
       </c>
       <c r="SZ51" t="n">
-        <v>1167404</v>
+        <v>1149744</v>
       </c>
       <c r="TA51" t="n">
-        <v>0</v>
+        <v>1579127</v>
       </c>
       <c r="TB51" t="n">
         <v>0</v>
@@ -84380,7 +84380,7 @@
         <v>617949</v>
       </c>
       <c r="TA52" t="n">
-        <v>0</v>
+        <v>594514</v>
       </c>
       <c r="TB52" t="n">
         <v>0</v>
@@ -85976,7 +85976,7 @@
         <v>240807</v>
       </c>
       <c r="TA53" t="n">
-        <v>0</v>
+        <v>1083001</v>
       </c>
       <c r="TB53" t="n">
         <v>0</v>
@@ -87572,7 +87572,7 @@
         <v>2029876</v>
       </c>
       <c r="TA54" t="n">
-        <v>0</v>
+        <v>2010993</v>
       </c>
       <c r="TB54" t="n">
         <v>0</v>
@@ -89168,7 +89168,7 @@
         <v>2820977</v>
       </c>
       <c r="TA55" t="n">
-        <v>0</v>
+        <v>1653043</v>
       </c>
       <c r="TB55" t="n">
         <v>0</v>
@@ -90764,7 +90764,7 @@
         <v>18962005</v>
       </c>
       <c r="TA56" t="n">
-        <v>0</v>
+        <v>27732761</v>
       </c>
       <c r="TB56" t="n">
         <v>0</v>
@@ -92357,10 +92357,10 @@
         <v>16807141</v>
       </c>
       <c r="SZ57" t="n">
-        <v>11700274</v>
+        <v>11709051</v>
       </c>
       <c r="TA57" t="n">
-        <v>0</v>
+        <v>16117223</v>
       </c>
       <c r="TB57" t="n">
         <v>0</v>
@@ -93956,7 +93956,7 @@
         <v>1201680</v>
       </c>
       <c r="TA58" t="n">
-        <v>0</v>
+        <v>1568069</v>
       </c>
       <c r="TB58" t="n">
         <v>0</v>
@@ -95549,10 +95549,10 @@
         <v>4590621</v>
       </c>
       <c r="SZ59" t="n">
-        <v>3081829</v>
+        <v>3082022</v>
       </c>
       <c r="TA59" t="n">
-        <v>0</v>
+        <v>2842782</v>
       </c>
       <c r="TB59" t="n">
         <v>0</v>
